--- a/Tables/03_BLtrimmer_results_comparing_MeltR_method_3_to_Meltwin_method_1/03_BLtrimmer_results_comparing_MeltR_method_3_to_Meltwin_method_1.xlsx
+++ b/Tables/03_BLtrimmer_results_comparing_MeltR_method_3_to_Meltwin_method_1/03_BLtrimmer_results_comparing_MeltR_method_3_to_Meltwin_method_1.xlsx
@@ -64,265 +64,265 @@
     <t xml:space="preserve">ACCGGU</t>
   </si>
   <si>
-    <t xml:space="preserve">-56.55 (-59.83 to -53.64)</t>
+    <t xml:space="preserve">-56.08 (-60.65 to -51.78)</t>
   </si>
   <si>
     <t xml:space="preserve">-54.1 (±4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-160.03 (-170.58 to -151)</t>
+    <t xml:space="preserve">-157.92 (-172.86 to -144.17)</t>
   </si>
   <si>
     <t xml:space="preserve">-151.5 (±12.4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-6.92 (-7.07 to -6.78)</t>
+    <t xml:space="preserve">-7.1 (-7.2 to -6.98)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.11 (±0.2)</t>
   </si>
   <si>
-    <t xml:space="preserve">43.96 (43.2 to 44.57)</t>
+    <t xml:space="preserve">45.07 (44.06 to 45.73)</t>
   </si>
   <si>
     <t xml:space="preserve">CCAUGG</t>
   </si>
   <si>
-    <t xml:space="preserve">-59.81 (-61.28 to -58.85)</t>
+    <t xml:space="preserve">-59.97 (-61.22 to -58.83)</t>
   </si>
   <si>
     <t xml:space="preserve">-60.4 (±2)</t>
   </si>
   <si>
-    <t xml:space="preserve">-171.26 (-175.82 to -168.22)</t>
+    <t xml:space="preserve">-171.42 (-175.34 to -167.86)</t>
   </si>
   <si>
     <t xml:space="preserve">-173.6 (±6.4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-6.7 (-6.75 to -6.66)</t>
+    <t xml:space="preserve">-6.8 (-6.84 to -6.77)</t>
   </si>
   <si>
     <t xml:space="preserve">-6.52 (±0.05)</t>
   </si>
   <si>
-    <t xml:space="preserve">42.38 (42.28 to 42.52)</t>
+    <t xml:space="preserve">42.93 (42.82 to 43.04)</t>
   </si>
   <si>
     <t xml:space="preserve">CGAAAGGU/ACCUUUCG</t>
   </si>
   <si>
-    <t xml:space="preserve">-67.96 (-70.05 to -66.27)</t>
+    <t xml:space="preserve">-67.41 (-69.8 to -65.87)</t>
   </si>
   <si>
     <t xml:space="preserve">-67.02 (±3.025)</t>
   </si>
   <si>
-    <t xml:space="preserve">-186.53 (-192.96 to -181.29)</t>
+    <t xml:space="preserve">-184.57 (-191.92 to -179.83)</t>
   </si>
   <si>
     <t xml:space="preserve">-184.51 (±9.497)</t>
   </si>
   <si>
-    <t xml:space="preserve">-10.11 (-10.21 to -10.01)</t>
+    <t xml:space="preserve">-10.16 (-10.27 to -10.08)</t>
   </si>
   <si>
     <t xml:space="preserve">-9.8 (±0.087)</t>
   </si>
   <si>
-    <t xml:space="preserve">54.22 (53.94 to 54.6)</t>
+    <t xml:space="preserve">54.67 (54.46 to 54.9)</t>
   </si>
   <si>
     <t xml:space="preserve">CGCGCG</t>
   </si>
   <si>
-    <t xml:space="preserve">-56.81 (-58.02 to -55.85)</t>
+    <t xml:space="preserve">-56.87 (-57.86 to -55.99)</t>
   </si>
   <si>
     <t xml:space="preserve">-55.6 (±1.3)</t>
   </si>
   <si>
-    <t xml:space="preserve">-157.11 (-160.73 to -154.06)</t>
+    <t xml:space="preserve">-156.87 (-159.9 to -154.13)</t>
   </si>
   <si>
     <t xml:space="preserve">-153.9 (±4.3)</t>
   </si>
   <si>
-    <t xml:space="preserve">-8.09 (-8.16 to -8)</t>
+    <t xml:space="preserve">-8.22 (-8.29 to -8.14)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.85 (±0.17)</t>
   </si>
   <si>
-    <t xml:space="preserve">50.73 (50.31 to 51)</t>
+    <t xml:space="preserve">51.51 (51.16 to 51.82)</t>
   </si>
   <si>
     <t xml:space="preserve">CGUUGC/GCAACG</t>
   </si>
   <si>
-    <t xml:space="preserve">-51.96 (-54.18 to -50.39)</t>
+    <t xml:space="preserve">-51.53 (-53.88 to -50.06)</t>
   </si>
   <si>
     <t xml:space="preserve">-51.06 (±3.567)</t>
   </si>
   <si>
-    <t xml:space="preserve">-143.72 (-150.77 to -138.69)</t>
+    <t xml:space="preserve">-142.01 (-149.38 to -137.4)</t>
   </si>
   <si>
     <t xml:space="preserve">-141.39 (±11.476)</t>
   </si>
   <si>
-    <t xml:space="preserve">-7.38 (-7.45 to -7.3)</t>
+    <t xml:space="preserve">-7.48 (-7.55 to -7.39)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.21 (±0.087)</t>
   </si>
   <si>
-    <t xml:space="preserve">42.15 (41.72 to 42.43)</t>
+    <t xml:space="preserve">42.83 (42.36 to 43.16)</t>
   </si>
   <si>
     <t xml:space="preserve">CUGAGUC/GACUCAG</t>
   </si>
   <si>
-    <t xml:space="preserve">-63.31 (-64.04 to -62.74)</t>
+    <t xml:space="preserve">-63.41 (-64.13 to -62.89)</t>
   </si>
   <si>
     <t xml:space="preserve">-63.32 (±1.928)</t>
   </si>
   <si>
-    <t xml:space="preserve">-173.84 (-176.06 to -172.06)</t>
+    <t xml:space="preserve">-173.81 (-175.94 to -172.19)</t>
   </si>
   <si>
     <t xml:space="preserve">-174.65 (±6.191)</t>
   </si>
   <si>
-    <t xml:space="preserve">-9.39 (-9.45 to -9.36)</t>
+    <t xml:space="preserve">-9.51 (-9.57 to -9.47)</t>
   </si>
   <si>
     <t xml:space="preserve">-9.15 (±0.03)</t>
   </si>
   <si>
-    <t xml:space="preserve">51.69 (51.43 to 51.88)</t>
+    <t xml:space="preserve">52.28 (52.03 to 52.46)</t>
   </si>
   <si>
     <t xml:space="preserve">FAMCGAAAGGU/ACCUUUCGBHQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">-81.03 (-83.71 to -79.11)</t>
+    <t xml:space="preserve">-81.07 (-83.87 to -78.47)</t>
   </si>
   <si>
     <t xml:space="preserve">-81.12 (±1.583)</t>
   </si>
   <si>
-    <t xml:space="preserve">-216.68 (-224.73 to -210.93)</t>
+    <t xml:space="preserve">-216.51 (-225.09 to -208.72)</t>
   </si>
   <si>
     <t xml:space="preserve">-217.61 (±5.076)</t>
   </si>
   <si>
-    <t xml:space="preserve">-13.82 (-14.03 to -13.66)</t>
+    <t xml:space="preserve">-13.92 (-14.17 to -13.71)</t>
   </si>
   <si>
     <t xml:space="preserve">-13.63 (±0.092)</t>
   </si>
   <si>
-    <t xml:space="preserve">67.67 (67.07 to 68.19)</t>
+    <t xml:space="preserve">68.09 (67.53 to 68.6)</t>
   </si>
   <si>
     <t xml:space="preserve">FAMCGUUGC/GCAACGBHQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">-60.25 (-62 to -58.16)</t>
+    <t xml:space="preserve">-60 (-61.6 to -57.17)</t>
   </si>
   <si>
     <t xml:space="preserve">-61.47 (±3.4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-160.5 (-165.69 to -154.17)</t>
+    <t xml:space="preserve">-159.32 (-164.11 to -150.79)</t>
   </si>
   <si>
     <t xml:space="preserve">-164.74 (±10.499)</t>
   </si>
   <si>
-    <t xml:space="preserve">-10.47 (-10.62 to -10.32)</t>
+    <t xml:space="preserve">-10.59 (-10.73 to -10.42)</t>
   </si>
   <si>
     <t xml:space="preserve">-10.38 (±0.163)</t>
   </si>
   <si>
-    <t xml:space="preserve">58.7 (58.4 to 58.93)</t>
+    <t xml:space="preserve">59.5 (59.21 to 59.81)</t>
   </si>
   <si>
     <t xml:space="preserve">FAMCUGAGUC/GACUCAGBHQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">-75.46 (-77.41 to -73.1)</t>
+    <t xml:space="preserve">-75.46 (-77.18 to -73.64)</t>
   </si>
   <si>
     <t xml:space="preserve">-74.43 (±2.316)</t>
   </si>
   <si>
-    <t xml:space="preserve">-199.62 (-205.3 to -192.64)</t>
+    <t xml:space="preserve">-199.19 (-204.42 to -193.8)</t>
   </si>
   <si>
     <t xml:space="preserve">-197.46 (±6.709)</t>
   </si>
   <si>
-    <t xml:space="preserve">-13.55 (-13.72 to -13.33)</t>
+    <t xml:space="preserve">-13.68 (-13.84 to -13.5)</t>
   </si>
   <si>
     <t xml:space="preserve">-13.19 (±0.275)</t>
   </si>
   <si>
-    <t xml:space="preserve">68.8 (68.45 to 69.23)</t>
+    <t xml:space="preserve">69.44 (69.06 to 69.81)</t>
   </si>
   <si>
     <t xml:space="preserve">GAUAUAUC</t>
   </si>
   <si>
-    <t xml:space="preserve">-74.09 (-78.83 to -71.81)</t>
+    <t xml:space="preserve">-72.69 (-77.24 to -71.12)</t>
   </si>
   <si>
     <t xml:space="preserve">-74.2 (±4.4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-221.77 (-237.04 to -214.48)</t>
+    <t xml:space="preserve">-216.95 (-231.57 to -212.07)</t>
   </si>
   <si>
     <t xml:space="preserve">-221.7 (±14.2)</t>
   </si>
   <si>
-    <t xml:space="preserve">-5.31 (-5.34 to -5.26)</t>
+    <t xml:space="preserve">-5.4 (-5.44 to -5.35)</t>
   </si>
   <si>
     <t xml:space="preserve">-5.41 (±0.06)</t>
   </si>
   <si>
-    <t xml:space="preserve">35.46 (35.2 to 35.6)</t>
+    <t xml:space="preserve">35.84 (35.6 to 36)</t>
   </si>
   <si>
     <t xml:space="preserve">GCAAUUGC</t>
   </si>
   <si>
-    <t xml:space="preserve">-81.36 (-84.43 to -79.17)</t>
+    <t xml:space="preserve">-80.81 (-84.71 to -78.44)</t>
   </si>
   <si>
     <t xml:space="preserve">-79.4 (±3.8)</t>
   </si>
   <si>
-    <t xml:space="preserve">-234.47 (-244.05 to -227.71)</t>
+    <t xml:space="preserve">-232.39 (-244.55 to -225.01)</t>
   </si>
   <si>
     <t xml:space="preserve">-229.8 (±11.9)</t>
   </si>
   <si>
-    <t xml:space="preserve">-8.64 (-8.75 to -8.56)</t>
+    <t xml:space="preserve">-8.73 (-8.86 to -8.64)</t>
   </si>
   <si>
     <t xml:space="preserve">-8.15 (±0.12)</t>
   </si>
   <si>
-    <t xml:space="preserve">48.71 (48.65 to 48.78)</t>
+    <t xml:space="preserve">49.19 (49.1 to 49.27)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,13 +431,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="17.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,16 +509,16 @@
         <v>45.4</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>4.4283777677361</v>
+        <v>3.59411871483027</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>5.47619811896126</v>
+        <v>4.14969943765754</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2.70848182466145</v>
+        <v>0.140745953553845</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3.22291853178155</v>
+        <v>0.729523598983085</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,16 +550,16 @@
         <v>41.4</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.981615506197482</v>
+        <v>0.714463736811497</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1.35707243519109</v>
+        <v>1.26369485826909</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>2.72314674735251</v>
+        <v>4.20420420420421</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>2.33946049176415</v>
+        <v>3.62860192102455</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,16 +591,16 @@
         <v>52.9</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1.39279893317528</v>
+        <v>0.580227627761661</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1.08883139284175</v>
+        <v>0.0325132762544718</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>3.11401305876443</v>
+        <v>3.60721442885771</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>2.46452576549664</v>
+        <v>3.29088035697686</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,16 +632,16 @@
         <v>49.6</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>2.15283337781336</v>
+        <v>2.25838001244776</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>2.06424230732131</v>
+        <v>1.91138140747176</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>3.01129234629862</v>
+        <v>4.6048537647791</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>2.25256653044951</v>
+        <v>3.77806349520324</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,16 +673,16 @@
         <v>41.2</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1.7472335468841</v>
+        <v>0.91626864216785</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1.63445687629337</v>
+        <v>0.437544107268881</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>2.33036326250857</v>
+        <v>3.67597004765147</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>2.27954409118175</v>
+        <v>3.87956682137331</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,16 +714,16 @@
         <v>50.4</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.0157940456447888</v>
+        <v>0.142034246034871</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.4648626933341</v>
+        <v>0.482121333869026</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>2.58899676375405</v>
+        <v>3.85852090032154</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>2.52718189832501</v>
+        <v>3.66186209583171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,16 +755,16 @@
         <v>66.7</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.111008325624426</v>
+        <v>0.0616560823725401</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.428285247185064</v>
+        <v>0.506772321017241</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1.38433515482695</v>
+        <v>2.10526315789473</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1.44377465208008</v>
+        <v>2.06246754210253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,16 +796,16 @@
         <v>57.7</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>2.00460072297075</v>
+        <v>2.4203507038775</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>2.60730537449269</v>
+        <v>3.34505955687219</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.863309352517984</v>
+        <v>2.00286123032903</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>1.71821305841924</v>
+        <v>3.0716723549488</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,13 +840,13 @@
         <v>1.37434118353457</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>1.08794197642792</v>
+        <v>0.872305559057098</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>2.69259536275244</v>
+        <v>3.64719017491627</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1.90755685986793</v>
+        <v>2.83335767489411</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,16 +878,16 @@
         <v>35.9</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.148357947265493</v>
+        <v>2.05596024235823</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.0315692155050044</v>
+        <v>2.16573578023481</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1.86567164179105</v>
+        <v>0.185013876040699</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>1.23318385650224</v>
+        <v>0.16727069974908</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,30 +919,34 @@
         <v>47</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>2.43841751679521</v>
+        <v>1.76018975095187</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>2.01176039804424</v>
+        <v>1.12075120621388</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>5.83680762358547</v>
+        <v>6.87203791469194</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>3.57329432661164</v>
+        <v>4.5534878885539</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="0" t="n">
-        <v>1.52685262487651</v>
+        <f aca="false">AVERAGE(J2:J12)</f>
+        <v>1.44345372210442</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1.65932054869071</v>
+        <f aca="false">AVERAGE(K2:K12)</f>
+        <v>1.48068898583509</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>2.64718301261941</v>
+        <f aca="false">AVERAGE(L2:L12)</f>
+        <v>3.17307960484005</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>2.2692927329527</v>
+        <f aca="false">AVERAGE(M2:M12)</f>
+        <v>2.8778867681492</v>
       </c>
     </row>
   </sheetData>
